--- a/alquileres.xlsx
+++ b/alquileres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Características</t>
+          <t>Precio/m²Características</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -512,6 +512,188 @@
       <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Teléfono</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Características Básicas</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Más Características</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>105773947</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Alquiler de Ático en Peñas Negras, 12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>('\nPeñas Negras, 12\n',)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>('\nBarrio Torreagüera\n',)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>('\nDistrito Pedanías Este\n',)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>('\nMurcia\n',)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>700€/mes</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>105773947</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CITYSOL MURCIA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>['128 m² construidos', '3 habitaciones', '2 baños', 'Terraza y balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Orientación este, oeste', 'Construido en 2010', 'Cocina equipada y casa sin amueblar', 'Planta 3ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>37324696</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Jacobo de las Leyes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>('\nCalle Jacobo de las Leyes\n',)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>('\nBarrio La Fama\n',)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>('\nDistrito Centro\n',)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>('\nMurcia\n',)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>750€/mes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2530</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>The Simple Rent</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>['90 m² construidos, 85 m² útiles', '3 habitaciones', '1 baño', 'Balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Amueblado y cocina equipada', 'Planta 3ª exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>

--- a/alquileres.xlsx
+++ b/alquileres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,10 +608,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>37324696</t>
-        </is>
+      <c r="A3" t="n">
+        <v>37324696</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -661,10 +659,8 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2530</t>
-        </is>
+      <c r="L3" t="n">
+        <v>2530</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -681,17 +677,5545 @@
           <t>Anuncio actualizado el 20 de agosto</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>['90 m² construidos, 85 m² útiles', '3 habitaciones', '1 baño', 'Balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Amueblado y cocina equipada', 'Planta 3ª exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>105773754</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en Peñas Negras, 12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>('\nPeñas Negras, 12\n',)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>('\nBarrio Torreagüera\n',)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>('\nDistrito Pedanías Este\n',)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>('\nMurcia\n',)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>650€/mes</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>105773754</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>CITYSOL MURCIA</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>['90 m² construidos', '2 habitaciones', '2 baños', 'Terraza', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación este, oeste', 'Construido en 2010', 'Cocina equipada y casa sin amueblar', 'Bajo exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>105544224</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en luis fontes pagan, 11</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>('\nluis fontes pagan, 11\n',)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>('\nBarrio Vistabella\n',)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>('\nDistrito Centro\n',)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>('\nMurcia\n',)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>800€/mes</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>105544224</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Antonio Garrido</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>['100 m² construidos, 90 m² útiles', '3 habitaciones', '1 baño', 'Terraza y balcón', 'Segunda mano/buen estado', 'Orientación sur', 'Amueblado y cocina equipada', 'Calefacción central: Gas', 'Planta 1ª exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>89427167</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Atocheros</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>('\nCalle Atocheros\n',)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>('\nBarrio Zona Juan de Borbón\n',)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>('\nDistrito Norte\n',)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>('\nMurcia\n',)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>675€/mes</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>P00047</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Proventa</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>['60 m² construidos, 55 m² útiles', '1 habitación', '1 baño', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Amueblado y cocina equipada', 'Calefacción central', 'Planta 4ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>101260063</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Alquiler de Estudio en calle manga murcia, 5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>('\nCalle manga murcia, 5\n',)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>('\nBarrio San Nicolás\n',)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>('\nDistrito Centro\n',)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>('\nMurcia\n',)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>450€/mes</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>101260063</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Murciajoven.es</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>+34868350704</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>['30 m² construidos, 29 m² útiles', 'Sin habitación', '1 baño', 'Segunda mano/buen estado', 'Armarios empotrados', 'Amueblado y cocina equipada', 'Calefacción individual: Eléctrica', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>105719818</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Rambla, 3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>('\nCalle Rambla, 3\n',)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>('\nBarrio El Palmar\n',)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>('\nDistrito Pedanías Oeste\n',)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>('\nMurcia\n',)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>800€/mes</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>105719818</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Pilar</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>['120 m² construidos, 90 m² útiles', '3 habitaciones', '2 baños', 'Terraza y balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación oeste', 'Amueblado y cocina equipada', 'Calefacción individual: Eléctrica', 'Planta 2ª exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>86569101</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle turroneros s/n</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>('\nCalle turroneros s/n\n',)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>('\nBarrio San Andrés-San Antolín\n',)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>('\nDistrito Centro\n',)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>('\nMurcia\n',)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>595€/mes</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>86569101</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Murciajoven.es</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>+34868350704</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>['65 m² construidos, 60 m² útiles', '1 habitación', '1 baño', 'Segunda mano/buen estado', 'Armarios empotrados', 'Amueblado y cocina equipada', 'Calefacción individual: Eléctrica', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>105772433</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Alquiler de Casa o chalet independiente en calle San Nicolás</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>('\nCalle San Nicolás\n',)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>('\nBarrio La Ñora\n',)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>('\nDistrito Pedanías Oeste\n',)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>('\nMurcia\n',)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>750€/mes</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ALQUILER-NICOLAS56</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Puerto Soluciones</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>+34868355335</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>[' Casa o chalet independiente', '1 planta', '125 m² construidos, 120 m² útiles', '3 habitaciones', '1 baño', 'Terraza', 'Segunda mano/buen estado', 'Amueblado y cocina equipada', 'No dispone de calefacción']</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31330943</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Alquiler de Ático en La Purísima-Barriomar</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio La Purísima-Barriomar
+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Sur
+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>550€/mes</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ALMERIA 209 4 H</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>JUAN ANTONIO ALARCON</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>+34868350603</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>['60 m² construidos, 50 m² útiles', '1 habitación', '1 baño', 'Terraza', 'Segunda mano/buen estado', 'Armarios empotrados', 'Construido en 2009', 'Amueblado y cocina equipada', 'Calefacción individual: Bomba de frío/calor', 'Planta 4ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>105772403</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle América</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle América
+</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Espinardo
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Norte
+</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>850€/mes</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>01330</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Soluciones Inmobiliarias 65</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>+34868355773</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>['95 m² construidos, 80 m² útiles', '3 habitaciones', '1 baño', 'Terraza y balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Orientación oeste', 'Construido en 1983', 'No dispone de calefacción', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>105728119</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Alquiler de Estudio en calle Frutos Baeza</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Frutos Baeza
+</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Santa Catalina-San Bartolomé
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>680€/mes</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>57304</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>The Simple Rent</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>+34868350665</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>['55 m² construidos, 50 m² útiles', 'Sin habitación', '1 baño', 'Balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Amueblado y cocina equipada', 'Planta 1ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>105772063</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Alquiler de Ático en calle Pedáneo José Sánchez Mompeán</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Pedáneo José Sánchez Mompeán
+</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Ronda Sur
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Sur
+</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>950€/mes</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>105772063</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Gestycosta</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>+34868350362</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>['100 m² construidos, 99 m² útiles', '2 habitaciones', '2 baños', 'Terraza y balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación este', 'Amueblado y cocina equipada', 'Calefacción central', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>86544699</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Obispo Frutos</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Obispo Frutos
+</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Santa Eulalia
+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>670€/mes</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>35930</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>The Simple Rent</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>+34868350665</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>['55 m² construidos, 50 m² útiles', '2 habitaciones', '1 baño', 'Balcón', 'Segunda mano/buen estado', 'Amueblado y cocina equipada', 'Planta 1ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>105771674</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle José Javier, 8</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle José Javier, 8
+</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Santa María de Gracia
+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1.300€/mes</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>105771674</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>FINCASMURCIA .</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>+34868350224</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>['120 m² construidos, 100 m² útiles', '4 habitaciones', '2 baños', 'Balcón', 'Segunda mano/buen estado', 'Orientación norte, sur', 'Construido en 1967', 'Amueblado y cocina equipada', 'No dispone de calefacción', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>100554562</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle los Nietos</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle los Nietos
+</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Ronda Sur
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Sur
+</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>825€/mes</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>47125</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>The Simple Rent</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>+34868350665</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>['110 m² construidos, 106 m² útiles', '3 habitaciones', '2 baños', 'Balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Amueblado y cocina equipada', 'Planta 1ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>105727543</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Poeta Ramírez Pagan</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Poeta Ramírez Pagan
+</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio San Juan
+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>650€/mes</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>32325</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>The Simple Rent</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>+34868350665</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>['60 m² construidos, 57 m² útiles', '1 habitación', '1 baño', 'Terraza y balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Amueblado y cocina equipada', 'Planta 3ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>105771567</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en avenida Juan Pablo II, 54</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Avenida Juan Pablo II, 54
+</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Zona Juan Carlos I
+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>690€/mes</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>105771567</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>['90 m² construidos, 85 m² útiles', '3 habitaciones', '1 baño', 'Balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Amueblado y cocina equipada', 'Planta 3ª exterior', 'Sin ascensor']</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>['53 m² construidos', '1 habitación', '1 baño', 'Terraza', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Amueblado y cocina equipada', 'Planta 4ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>105770982</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en El Carmen</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio El Carmen
+</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Sur
+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>900€/mes</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>41580</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>ALQUILOTUCASA MURCIA1</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>+34868350971</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>['110 m² construidos, 100 m² útiles', '4 habitaciones', '2 baños', 'Balcón', 'Segunda mano/buen estado', 'Orientación sur', 'Construido en 1985', 'Amueblado y cocina equipada', 'No dispone de calefacción', 'Planta 5ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>102587472</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en avenida de los Pinos</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Avenida de los Pinos
+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Santa María de Gracia
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>900€/mes</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>41177</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>The Simple Rent</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>+34868350665</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>['95 m² construidos, 90 m² útiles', '4 habitaciones', '2 baños', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Amueblado y cocina equipada', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>105769226</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle de la Gloria, 3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle de la Gloria, 3
+</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio San Juan
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>850€/mes</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>105769226</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Alberto Fernandez</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>+34692929944</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>['110 m² construidos, 99 m² útiles', '3 habitaciones', '2 baños', 'Terraza y balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación sur', 'Amueblado y cocina equipada', 'Planta 3ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>105707198</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Mariano Ruiz Funes, 17</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Mariano Ruiz Funes, 17
+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Vista Alegre
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>800€/mes</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>105707198</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>francisco</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>+34658031656</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>['90 m² construidos, 89 m² útiles', '3 habitaciones', '2 baños', 'Segunda mano/buen estado', 'Armarios empotrados', 'Amueblado y cocina equipada', 'Planta 1ª exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>105768086</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Rosario, 102</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Rosario, 102
+</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio La Ñora
+</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Oeste
+</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>840€/mes</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>105768086</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>+34610056771</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>['115 m² construidos, 104 m² útiles', '3 habitaciones', '2 baños', 'Terraza', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación sur', 'Amueblado y cocina equipada', 'Planta 3ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>104915234</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Historiador Juan Torres Fontes, 2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Historiador Juan Torres Fontes, 2
+</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Infante Juan Manuel
+</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Sur
+</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>700€/mes</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>104915234</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>pedromiguel</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>+34619131415</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>['70 m² construidos', '2 habitaciones', '1 baño', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Orientación norte', 'Construido en 2005', 'Calefacción individual', 'Planta 1ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>105769671</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Pintor Salvador Dalí</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Pintor Salvador Dalí
+</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio La Flota
+</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>570€/mes</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>105769671</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Asesoras Patrimoniales del Mediterráneo</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>+34868355928</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>['40 m² construidos, 35 m² útiles', '1 habitación', '1 baño', 'Segunda mano/buen estado', 'Amueblado y cocina equipada', 'Bajo exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>105769654</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Paz</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Paz
+</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio La Ñora
+</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Oeste
+</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>700€/mes</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>105769654</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Asesoras Patrimoniales del Mediterráneo</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>+34868355928</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>['100 m² construidos, 98 m² útiles', '3 habitaciones', '2 baños', 'Segunda mano/buen estado', 'Armarios empotrados', 'Amueblado y cocina equipada', 'Bajo exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>105769660</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle República Argentina</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle República Argentina
+</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio El Palmar
+</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Oeste
+</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>700€/mes</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>105769660</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Asesoras Patrimoniales del Mediterráneo</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>+34868355928</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>['115 m² construidos, 110 m² útiles', '3 habitaciones', '2 baños', 'Balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Amueblado y cocina equipada', 'Planta 4ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>105769650</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Jorge Guillén, 15</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Jorge Guillén, 15
+</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Vista Alegre
+</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>795€/mes</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>105769650</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Carmen</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>['85 m² construidos, 80 m² útiles', '3 habitaciones', '1 baño', 'Segunda mano/buen estado', 'Orientación sur', 'Amueblado y cocina equipada', 'Entreplanta exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>105769646</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Federico García Lorca</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Federico García Lorca
+</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Puebla de Soto
+</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Oeste
+</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>650€/mes</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>105769646</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Asesoras Patrimoniales del Mediterráneo</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>+34868355928</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>['70 m² construidos, 68 m² útiles', '2 habitaciones', '1 baño', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Cocina equipada y casa sin amueblar', 'Planta 1ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>105769620</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Canteras</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Canteras
+</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Javalí Nuevo
+</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Oeste
+</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>600€/mes</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>105769620</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Asesoras Patrimoniales del Mediterráneo</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>+34868355928</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>['65 m² construidos, 62 m² útiles', '2 habitaciones', '1 baño', 'Segunda mano/buen estado', 'Cocina equipada y casa sin amueblar', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>105769472</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Desembojo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Desembojo
+</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio San Antón
+</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>700€/mes</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>105769472</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Asesoras Patrimoniales del Mediterráneo</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>+34868355928</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>['90 m² construidos', '3 habitaciones', '1 baño', 'Segunda mano/buen estado', 'Amueblado y cocina equipada', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>83831829</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Maestro Ibarra, 9</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Maestro Ibarra, 9
+</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Ronda Sur
+</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Sur
+</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>675€/mes</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>83831829</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Mari Carmen</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>+34625825136</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>['70 m² construidos, 68 m² útiles', '2 habitaciones', '1 baño', 'Balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Orientación oeste', 'Amueblado y cocina equipada', 'Calefacción individual: Bomba de frío/calor', 'Planta 4ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>105769272</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Jupiter</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Jupiter
+</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio San Pío X
+</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Sur
+</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>600€/mes</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>105769272</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Asesoras Patrimoniales del Mediterráneo</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>+34868355928</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>['55 m² construidos, 50 m² útiles', '1 habitación', '1 baño', 'Balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Amueblado y cocina equipada', 'Planta 3ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>105769234</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Pico de la Panocha</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Pico de la Panocha
+</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Santa María de Gracia
+</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>900€/mes</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>105769234</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Asesoras Patrimoniales del Mediterráneo</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>+34868355928</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>['90 m² construidos', '3 habitaciones', '1 baño', 'Terraza y balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Amueblado y cocina equipada', 'Planta 4ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>98152283</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Santa Teresa, 4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Santa Teresa, 4
+</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio San Miguel
+</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1.200€/mes</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>98152283</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Pepi</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>+34606431923</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>['113 m² construidos', '4 habitaciones', '2 baños', 'Balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Amueblado y cocina equipada', 'Planta 1ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>105768178</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en paseo Duques de Lugo, 5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Paseo Duques de Lugo, 5
+</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio El Ranero-San Basilio
+</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>800€/mes</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>105768178</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>FINCASMURCIA .</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>+34868350224</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>['100 m² construidos, 80 m² útiles', '3 habitaciones', '2 baños', 'Balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Orientación este', 'Construido en 2006', 'Amueblado y cocina equipada', 'Planta 1ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>105767745</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en Vista Alegre</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Vista Alegre
+</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>720€/mes</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>105767745</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>+34638499952</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>['90 m² construidos', '3 habitaciones', '1 baño', 'Segunda mano/buen estado', 'Amueblado y cocina equipada', 'Entreplanta exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>105766580</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Marqués de Ordoño</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Marqués de Ordoño
+</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio El Carmen
+</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Sur
+</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>750€/mes</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>RP1742024129544</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>REDPISO MURCIA</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>+34868355607</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>['106 m² construidos', '3 habitaciones', '1 baño', 'Segunda mano/buen estado', 'Amueblado y cocina equipada', 'Planta 1ª interior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>105766502</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Sierra Pila, 4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Sierra Pila, 4
+</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio San Andrés-San Antolín
+</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>690€/mes</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Fianza de 3 meses</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>105766502</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Ursula</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>+34674832256</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>['80 m² construidos, 75 m² útiles', '2 habitaciones', '1 baño', 'Segunda mano/buen estado', 'Amueblado y cocina equipada', 'Planta 3ª interior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>81824447</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Vistalegre, 46</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Vistalegre, 46
+</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio La Ñora
+</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Oeste
+</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>650€/mes</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>81824447</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>+34647334387</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>['75 m² construidos, 72 m² útiles', '2 habitaciones', '2 baños', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación oeste', 'Amueblado y cocina equipada', 'Calefacción central', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>98717762</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Alquiler de Chalet adosado en avenida de los Rectores</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Avenida de los Rectores
+</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio El Puntal
+</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Norte
+</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1.400€/mes</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>98717762</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Centronova</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>+34868350101</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>['Chalet adosado', '2 plantas', '180 m² construidos', '4 habitaciones', '3 baños', 'Parcela de 240 m²', 'Terraza y balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Orientación norte, sur, este, oeste', 'Amueblado y cocina equipada', 'Calefacción individual']</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>86537246</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Manzano, 1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Manzano, 1
+</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio La Ñora
+</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Oeste
+</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>495€/mes</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>86537246</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Alberto</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>['120 m² construidos', '3 habitaciones', '2 baños', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Amueblado y cocina equipada', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>105765783</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Alquiler de Ático en calle Reina Sofía, 23</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Reina Sofía, 23
+</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Churra
+</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Norte
+</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1.000€/mes</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>105765783</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Pablo</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>+34686737569</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>['145 m² construidos', '3 habitaciones', '3 baños', 'Terraza y balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación norte, sur', 'Amueblado y cocina equipada', 'Calefacción individual: Bomba de frío/calor', 'Planta 3ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>103005134</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Herradura, 1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Herradura, 1
+</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Santa Eulalia
+</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>900€/mes</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>103005134</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Juan Pedro</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>['89 m² construidos', '2 habitaciones', '1 baño', 'Terraza', 'Segunda mano/buen estado', 'Orientación sur, este', 'Amueblado y cocina equipada', 'Calefacción individual: Gas natural', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>105764732</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en ronda Norte, 20</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ronda Norte, 20
+</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Santa María de Gracia
+</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>720€/mes</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ESTUDIANTES377</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Enfrente de la Vega</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>+34868350282</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>['90 m² construidos, 80 m² útiles', '3 habitaciones', '1 baño', 'Segunda mano/buen estado', 'Orientación norte', 'Amueblado y cocina equipada', 'Planta 6ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>103535315</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en San Juan</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio San Juan
+</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>900€/mes</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>INP05860</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>INPROE "ASESORES INMOBILIARIOS"</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>+34868350643</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>['99 m² construidos', '3 habitaciones', '1 baño', 'Balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Construido en 1987', 'Amueblado y cocina equipada', 'No dispone de calefacción', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>105763442</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Escritor Jerónimo Tristante</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Escritor Jerónimo Tristante
+</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Espinardo
+</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Norte
+</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>760€/mes</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>105763442</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>VIVALI INMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>+34868350078</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>['92 m² construidos, 84 m² útiles', '3 habitaciones', '2 baños', 'Balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación oeste', 'Construido en 2011', 'Amueblado y cocina equipada', 'Calefacción central', 'Planta 7ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>105763356</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Santa Rosa, 4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Santa Rosa, 4
+</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Santiago el Mayor
+</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Sur
+</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>600€/mes</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>105763356</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Andrés Inmohogar</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>+34868355112</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>['90 m² construidos, 80 m² útiles', '3 habitaciones', '1 baño', 'Balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación sur, este', 'Cocina equipada y casa sin amueblar', 'Calefacción individual: Bomba de frío/calor', 'Planta 1ª exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>105761369</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en El Esparragal</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio El Esparragal
+</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Norte
+</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>670€/mes</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>A2693</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Alejandro Lacarcel</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>+34868350218</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>['95 m² construidos', '3 habitaciones', '2 baños', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Cocina equipada y casa sin amueblar', 'No dispone de calefacción', 'Planta 1ª', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>105759761</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Mariano Ruiz Funes, 3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Mariano Ruiz Funes, 3
+</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Vista Alegre
+</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>680€/mes</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>105759761</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Juan Carlos</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>+34619522027</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>['65 m² construidos', '2 habitaciones', '1 baño', 'Segunda mano/buen estado', 'Amueblado y cocina equipada', 'Planta 1ª exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>105761102</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en Desembojo, 16</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Desembojo, 16
+</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio San Antón
+</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1.000€/mes</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>105761102</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Hugo</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>+34639928828</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>['120 m² construidos', '4 habitaciones', '2 baños', 'Terraza', 'Segunda mano/buen estado', 'Orientación norte', 'Amueblado y cocina equipada', 'Planta 4ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>105759936</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en paseo Moreras, 1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Paseo Moreras, 1
+</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Urb. LOS RECTORES
+</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio El Puntal
+</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Norte
+</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>750€/mes</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>105759936</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>+34607262374</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>['103 m² construidos', '3 habitaciones', '2 baños', 'Balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Orientación norte, oeste', 'Amueblado y cocina equipada', 'Planta 3ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>94652283</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en ronda Norte, 4</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ronda Norte, 4
+</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Santa María de Gracia
+</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>800€/mes</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Marta Pujante</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 18 de agosto</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>+34868350423</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>['90 m² construidos', '3 habitaciones', '1 baño', 'Segunda mano/buen estado', 'Armarios empotrados', 'Amueblado y cocina equipada', 'Planta 2ª exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>105664647</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Isabel la Católica</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Isabel la Católica
+</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio San Juan
+</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>650€/mes</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>COMPARTE/113</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>COMPARTEPISO COM</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>+34868350270</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>['72 m² construidos, 60 m² útiles', '1 habitación', '1 baño', 'Terraza y balcón', 'Segunda mano/buen estado', 'Calefacción individual: Eléctrica', 'Planta 3ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>105768526</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en almenara, 16</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+almenara, 16
+</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio San Andrés-San Antolín
+</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>900€/mes</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>105768526</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Tere Ballesta</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 20 de agosto</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>+34660464428</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>['90 m² construidos', '3 habitaciones', '2 baños', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación este', 'Amueblado y cocina equipada', 'Planta 4ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>105705435</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en puerta de Orihuela</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Puerta de Orihuela
+</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio San Juan
+</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Centro
+</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>950€/mes</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Fianza de 2 meses</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>OA-PUERTORIHU</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>CARLA VILLANUEVA</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 16 de agosto</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>+34868350074</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>['90 m² construidos, 85 m² útiles', '3 habitaciones', '2 baños', 'Terraza y balcón', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación este', 'Amueblado y cocina equipada', 'Calefacción individual: Eléctrica', 'Planta 3ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>89419172</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en calle Escritor Sánchez Moreno</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calle Escritor Sánchez Moreno
+</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Santa María de Gracia
+</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Norte
+</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1.450€/mes</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>PA-ESM1D</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>CARLA VILLANUEVA</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 31 de julio</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>+34868350074</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>['145 m² construidos, 100 m² útiles', '4 habitaciones', '2 baños', 'Terraza', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación este, oeste', 'Amueblado y cocina equipada', 'Calefacción individual: Bomba de frío/calor', 'Planta 1ª exterior', 'Sin ascensor']</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>96137690</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Alquiler de Casa o chalet independiente en Borax</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Borax
+</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Baños y Mendigo
+</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Campo de Murcia
+</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1.550€/mes</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Fianza de 1 mes</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Ev Spenser</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Spanish Home 4 U</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 15 de agosto</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>+34868355657</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>['Casa o chalet independiente', '1 planta', '145 m² construidos, 144 m² útiles', '4 habitaciones', '2 baños', 'Parcela de 440 m²', 'Terraza y balcón', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Trastero', 'Orientación sur', 'Construido en 2006', 'Calefacción central: Gas']</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>105616442</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Alquiler de Casa o chalet independiente en Guadalupe</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio Guadalupe
+</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Oeste
+</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1.150€/mes</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>41542</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>ALQUILOTUCASA MURCIA1</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 19 de agosto</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>+34868350971</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>['Casa o chalet independiente', '1 planta', '120 m² construidos, 100 m² útiles', '4 habitaciones', '2 baños', 'Segunda mano/buen estado', 'Construido en 1965', 'Amueblado y cocina equipada', 'No dispone de calefacción']</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>105676636</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Alquiler de Piso en avenida de los Jerónimos</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Avenida de los Jerónimos
+</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Barrio La Ñora
+</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Distrito Pedanías Oeste
+</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Murcia
+</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Área de Murcia, Murcia
+</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>850€/mes</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ALP59</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Expoviviendas</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Anuncio actualizado el 13 de agosto</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>+34868350855</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>['120 m² construidos, 107 m² útiles', '3 habitaciones', '2 baños', 'Plaza de garaje incluida en el precio', 'Segunda mano/buen estado', 'Armarios empotrados', 'Orientación norte, sur', 'Amueblado y cocina equipada', 'No dispone de calefacción', 'Planta 2ª exterior', 'Con ascensor']</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
